--- a/Excel_Challenge_581 - Increment Sequences.xlsx
+++ b/Excel_Challenge_581 - Increment Sequences.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA303ECD-EE3F-4AC6-8313-B86ED4557724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F47800-316F-4648-828E-225EF7319FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>Column1</t>
   </si>
@@ -48,6 +71,21 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7259776530250092545/</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>Term</t>
   </si>
 </sst>
 </file>
@@ -103,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,11 +552,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="778" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{A4AE70C6-8D19-4A0F-8C3B-D61BED025406}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -657,4 +725,590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DC87C7-61B4-488D-A206-810F0A72652E}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" cm="1">
+        <f t="array" ref="E6:E22">_xlfn.LET(
+    _xlpm.input, A2:A18,
+    _xlpm.prev, _xlfn.VSTACK("", _xlfn.DROP(_xlpm.input, -1)),
+    _xlfn.SCAN(0, (_xlpm.input = "A") * (_xlpm.prev &lt;&gt; "A"), _xleta.SUM) * (_xlpm.input = "A")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6:I22">(G6:G22="A")*(H6:H22&lt;&gt;"A")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:J22">_xlfn.SCAN(0,_xlfn.ANCHORARRAY(I6),_xleta.SUM)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" t="b" cm="1">
+        <f t="array" ref="K6:K22">G6:G22="A"</f>
+        <v>1</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6:L22">_xlfn.ANCHORARRAY(J6)*_xlfn.ANCHORARRAY(K6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" cm="1">
+        <f t="array" ref="B24:B40">_xlfn.LET(_xlpm.input,A2:A18,
+ _xlpm.prev,_xlfn.VSTACK("",_xlfn.DROP(_xlpm.input,-1)),
+ _xlfn.SCAN(0,(_xlpm.input="A")*(_xlpm.prev&lt;&gt;"A"),_xleta.SUM)*(_xlpm.input="A"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>